--- a/cypress/downloads/order-invoice_sbs23.xlsx
+++ b/cypress/downloads/order-invoice_sbs23.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>65115a537244490f95b8efdc</v>
+        <v>651281737244490f95b9d6c9</v>
       </c>
       <c r="B2" t="str">
         <v>adidas original</v>
